--- a/loaded_influencer_data/positivitymeg/positivitymeg_video.xlsx
+++ b/loaded_influencer_data/positivitymeg/positivitymeg_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7298434404039380256</t>
         </is>
@@ -515,10 +515,10 @@
         <v>1600000</v>
       </c>
       <c r="C2" t="n">
-        <v>267300</v>
+        <v>267400</v>
       </c>
       <c r="D2" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16.7286875</v>
+        <v>16.7350625</v>
       </c>
       <c r="I2" t="n">
-        <v>16.70625</v>
+        <v>16.7125</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0224375</v>
+        <v>0.0225625</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -559,19 +559,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7441667467459497248</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1819</v>
+        <v>1892</v>
       </c>
       <c r="C3" t="n">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.68114348543156</v>
+        <v>19.29175475687104</v>
       </c>
       <c r="I3" t="n">
-        <v>17.09730621220451</v>
+        <v>16.75475687103594</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.583837273227048</v>
+        <v>2.536997885835095</v>
       </c>
       <c r="L3" t="n">
-        <v>1.264431006047279</v>
+        <v>1.215644820295983</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7394395256353197344</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159100</v>
+        <v>159200</v>
       </c>
       <c r="C4" t="n">
         <v>21900</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13.81583909490886</v>
+        <v>13.8071608040201</v>
       </c>
       <c r="I4" t="n">
-        <v>13.76492771841609</v>
+        <v>13.75628140703517</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05091137649277185</v>
+        <v>0.05087939698492463</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7900691389063482</v>
+        <v>0.7902010050251256</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,1901 +664,2206 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@positivitymeg/video/7489733123127643414</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>536</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Enjoy the process of becoming… love this 👏🏻⭐️☁️
+#smallsteps #enjoythejourney #stepbystep</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>13.99253731343283</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.75373134328358</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.238805970149254</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7462686567164178</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@positivitymeg/video/7489517363419827478</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>472</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>These types of walks just make me so happy. Sunny evenings in April! The best time 🌷☀️☁️🌳
+#april #spring</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>19.06779661016949</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.25423728813559</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.813559322033898</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@positivitymeg/video/7489338036635864342</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>522</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lil reminder ⭐️
+Be gentle with yourself.
+#reminder #littlereminders #gentlereminder #selflovejourney</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>18.5823754789272</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.94252873563219</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.639846743295019</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9578544061302682</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@positivitymeg/photo/7488972872447298838</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>508</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>#oneatatime #reminder #quoteoftheday #quotesaesthetic #pinterest #positivity #wellbeing #mentalhealth</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>16.73228346456693</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.59842519685039</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.133858267716536</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.984251968503937</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@positivitymeg/photo/7488591898492423446</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>566</v>
+      </c>
+      <c r="C9" t="n">
+        <v>94</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Remember why you started!!
+#reminder #remindertomyself #gentlereminder #positivity #quotesaesthetic</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>20.31802120141343</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.6077738515901</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.710247349823322</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.413427561837456</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@positivitymeg/video/7488354813499968790</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5751</v>
+      </c>
+      <c r="C10" t="n">
+        <v>459</v>
+      </c>
+      <c r="D10" t="n">
+        <v>81</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Happy first of the month! Hopefully I can connect with so many more girlies who love… nature, walking, wellbeing, skincare, working on their mental health, travel etc etc ☁️⭐️🌸🌷 I’m soooo close to 4K!! Would love to make it to 5K this month too🤭</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9.389671361502346</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.981220657276995</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.408450704225352</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3129890453834116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7487500334739311894</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>710</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>116</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>27</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>You are were you’re meant to be ⭐️
 #happysunday #sunday #sundayreminder #reminder #gentlereminder</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>20.14084507042254</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>16.33802816901408</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.802816901408451</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>0.7042253521126761</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-30</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7487186126717930774</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>439</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>56</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>13</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>#girlssupportgirls #girlssupportinggirls #womensupportingwomen #supportoneanother</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>15.71753986332574</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>12.75626423690205</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.96127562642369</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>1.822323462414579</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7486895652622961942</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>573</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>104</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Happy Friday girlies!! ⭐️🎀🌷
 #fridayvibes #happyfriday #positivity #wellbeing #selflovejourney</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>20.76788830715532</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>18.1500872600349</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.617801047120419</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>0.6980802792321117</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7486751468960107798</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>539</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>76</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>19</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Happy Friday girlies!! ⭐️🎀🌷
 #fridayvibes #happyfriday #positivity #wellbeing #selflovejourney</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>17.62523191094619</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>14.10018552875696</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.525046382189239</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>1.484230055658627</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7486573049387568406</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>720</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>89</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>28</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Manifesting ✨✨ also teamwork, I’m so so close to 4K! Aghhh 🥰 let’s support one another #CapCut</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>16.25</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>12.36111111111111</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.888888888888889</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7486374876656307479</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>498</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>73</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>7</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Try doing even just one or two of these this week to help fill up your cup and look after yourself!
 #fillupyourcup</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>17.26907630522089</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>14.65863453815261</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.610441767068273</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>1.405622489959839</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7486069381903043862</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>467</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>80</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>17</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Try doing even just one or two of these this week to help fill up your cup and look after yourself!
 #fillupyourcup</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>20.77087794432548</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>17.1306209850107</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.640256959314775</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.6423982869379015</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7485815373149768982</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>524</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>74</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>18</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Appreciate where you are right now, be in the moment and look how far you’ve come ⭐️
 #gratitude #begrateful</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>17.55725190839695</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>14.12213740458015</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.435114503816794</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.7633587786259541</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7485637197178129686</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>2441</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>253</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>27</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>31</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>#trusttheprocess💯 #positivity #mindsetshift #quoteoftheday #quotesaesthetic</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>11.470708725932</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>10.36460467021712</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.106104055714871</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>1.269971323228185</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7485461106333371670</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>453</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>61</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Better me 30! I’m backkk ⭐️
 Fell off at the weekend but I’m back to it!!
 #healthandwellness</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>17.66004415011038</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>13.46578366445916</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.194260485651214</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>1.103752759381899</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7485380456385400086</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>1623</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>265</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>48</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Monday affirmation ⭐️👏🏻 always be yourself, never let anyone take away your sparkle and if you are in a place where you’ve lost your spark I just know you will find it again, keep going!!</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>19.2852741836106</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>16.32778804682686</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.957486136783734</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>0.6161429451632778</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7485104765530098966</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>2533</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>125</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>23</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>7</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Monday affirmation ⭐️👏🏻 always be yourself, never let anyone take away your sparkle and if you are in a place where you’ve lost your spark I just know you will find it again, keep going!!</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>5.842874062376628</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>4.93485984998026</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.9080142123963679</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>0.2763521515988946</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7484935098828098838</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>606</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>86</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>25</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Keep going! You will get there!!
 #quoteoftheday #quotesaesthetic #reminder #gentlereminder</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>18.31683168316832</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>14.19141914191419</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.125412541254125</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>0.6600660066006601</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7484538748462484758</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>490</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>56</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>18</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Went for a walk yesterday morning before work where I would usually just scroll and scroll until I log on for the day. Having a walk in the morning and stretching once I got home felt so much better and I felt so much more awake! We would probably have a much better, productive day if we chose to spend our time doing one of these instead of just scrolling aimlessly 👏🏻⭐️</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>15.10204081632653</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>11.42857142857143</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.673469387755103</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>0.8163265306122449</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7484347499755375895</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>622</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>95</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>21</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Went for a walk yesterday morning before work where I would usually just scroll and scroll until I log on for the day. Having a walk in the morning and stretching once I got home felt so much better and I felt so much more awake! We would probably have a much better, productive day if we chose to spend our time doing one of these instead of just scrolling aimlessly 👏🏻⭐️</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>18.64951768488746</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>15.27331189710611</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.376205787781351</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>0.482315112540193</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7484155518806773014</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>1133</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>166</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>34</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>14</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Keep going! Proud of you!!
 #reminder #gentlereminder #quoteoftheday #quotesaesthetic #mentalhealth</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>17.6522506619594</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>14.6513680494263</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.000882612533098</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>1.235657546337158</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7483978595652701462</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>707</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>80</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>22</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>5</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Starting a new 30 day health and wellness challenge “better me 30” saw someone else do this and wanted to try! I keep putting it off saying “I’ll start tomorrow” and I never do so I’m going to do my best to stick to routines this time, starting with 30 days! Eating better, getting my steps in, self care, hydration ☀️💦🥗🚶🏼‍♀️ (yes I changed outfit like 3 times today😂)</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>14.42715700141443</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>11.31541725601132</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.111739745403112</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>0.7072135785007072</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7483782594379730198</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>645</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>97</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>28</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>no one can ever be you, there’s only one of you. That is your superpower ⭐️
 #quoteoftheday #quotesaesthetic</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>19.37984496124031</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>15.03875968992248</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.341085271317829</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.6201550387596899</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7483497425164930326</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>1089</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>153</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>39</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>9</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Todays affirmation - feeling good today ⭐️🐚☁️🌸🌷
 #affirmations #affirmation #positiveaffirmations</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>17.63085399449036</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>14.0495867768595</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.581267217630854</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.8264462809917356</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7483214039733144834</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>688</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>107</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>39</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>7</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Take a breath…⭐️☁️
 #takeabreath #scrollbreak #reminder #gentlereminder #quoteoftheday #wellbeing</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>21.22093023255814</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>15.55232558139535</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.668604651162791</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>1.017441860465116</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7483134036815170838</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>588</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>67</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>20</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>6</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Enjoy your hobbies and interests for what they are, they don’t always need to be turned into revenue. Just enjoy them because they make you happy ⭐️🌳🪵🐚</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>14.79591836734694</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>11.39455782312925</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.401360544217687</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>1.020408163265306</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7482841044053200150</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>550</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>94</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>47</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Fill the comments with positive, motivating, kind words ☁️✨🌸🫧🌷🦋
 #positivevibes #positiveenergy</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>25.63636363636363</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>17.09090909090909</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>8.545454545454545</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.5454545454545455</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7482743518771907862</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>564</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>75</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>33</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>5</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>HAPPY MONDAY ⭐️ just a lil reminder!!
 #selflovejourney #selfloveclub #healingjourney #lookafteryou</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>19.14893617021277</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>13.29787234042553</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>5.851063829787234</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>0.8865248226950355</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7482493418556394774</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>493</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>54</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>8</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>I really want to focus on building and MAINTAINING these healthy habits as I know it’ll help me build a healthy lifestyle ☁️✨ I’m going to post videos to help me keep myself accountable..</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>12.57606490872211</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>10.95334685598377</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.622718052738337</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>1.01419878296146</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7482322591659724054</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>704</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>90</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>23</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>9</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Have a lovely Sunday!
 #trusttheproccess #wellbeing #wellness #positivity #mentalhealth #quoteoftheday</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>16.05113636363636</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>12.78409090909091</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.267045454545455</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>1.278409090909091</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7481939760672427286</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>1647</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>162</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>42</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>19</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Happy Saturday!! Your morning affirmation 🌸🤍☁️✨
 #saturday #morningaffirmations #affirmations</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>12.38615664845173</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>9.836065573770492</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.550091074681239</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>1.153612629022465</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7481719264974556438</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>470</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>162</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>42</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>19</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Happy Saturday!! Your morning affirmation 🌸🤍☁️✨
 #saturday #morningaffirmations #affirmations</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>43.40425531914894</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>34.46808510638298</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>8.936170212765958</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>4.042553191489362</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7481634364397391127</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>676</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>65</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>38</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>4</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Final reminder for today! ☁️✨👏🏻 have the best weekend. Also comment one positive thing that’s happened this week for you, no matter how big or small 🤍</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>15.23668639053254</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>9.615384615384617</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>5.621301775147929</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>0.591715976331361</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7481556899503148310</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>469</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>111</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>21</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>9</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Repeat after me!!! 👏🏻👏🏻✨
 Be gentle with yourself!
 #mentalhealth #mentalhealthmatters #wellbeing</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>28.14498933901919</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>23.66737739872068</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>4.477611940298507</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>1.918976545842218</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7481374469592747286</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>445</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>53</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>16</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>6</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Hope you have all have a lovely week! Have a great weekend! 🦋🫧🌸
 #fridayvibes #morningintentions</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>15.50561797752809</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>11.91011235955056</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.595505617977528</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>1.348314606741573</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7481184992689687830</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>1135</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>62</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>15</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>5</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Hope you have all have a lovely week! Have a great weekend! 🦋🫧🌸
 #fridayvibes #morningintentions</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>6.784140969162995</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>5.462555066079295</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.3215859030837</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.4405286343612335</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7481000509642444054</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>458</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>221</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>47</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>15</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Morning affirmations ✨🌸🤍 have a great day!!!
 #affirmations #morningaffirmations #positivity</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>58.51528384279477</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>48.25327510917031</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>10.26200873362446</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>3.275109170305677</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7480865541423664386</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>902</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>93</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>32</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>4</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Spend a calming evening with me. What things are in your evening routine that help you relax? ☁️🌸✨</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>13.85809312638581</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>10.31042128603104</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.547671840354767</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>0.4434589800443459</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7480644333457116438</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>818</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>103</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>20</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Spend a calming evening with me. What things are in your evening routine that help you relax? ☁️🌸✨</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>15.03667481662592</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>12.59168704156479</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>2.444987775061125</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>0.6112469437652812</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7480461809418390806</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>625</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>152</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>50</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>7</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Hope you’ve all had a lovely day! Just a quick reminder for this evening ✨👏🏻☁️
 #mentalhealth</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>32.32</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>24.32</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>8</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>1.12</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7480137068136418582</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>580</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>62</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>5</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>10</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Here are some grounding techniques I’ve found useful for when I’ve felt anxious or panicky or just “out of it” and I need help bringing myself back to the present moment ☁️</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>11.55172413793103</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>10.68965517241379</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.8620689655172413</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>1.724137931034483</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7480071228368194838</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>570</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>102</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>13</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Still can’t believe I got to experience nyc, it’s always been my dream and seeing this view was just incredible!! ✨🌃🍎</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>20.17543859649123</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>17.89473684210526</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>2.280701754385965</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>0.1754385964912281</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7479730144949587222</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>731</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>93</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>38</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Here’s your Monday reminder!
 Keep going!!
@@ -2567,433 +2872,179 @@
 #mondaymotivation</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>17.92065663474692</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>12.72229822161423</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>5.198358413132695</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.6839945280437756</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7479360378980355350</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>1505</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>118</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>23</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>8</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>You’re meant for great things ✨
 #mindsetmotivation #mindsetshift #mindsetmatters #wellbeing</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>9.368770764119601</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>7.840531561461795</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.528239202657807</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>0.53156146179402</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/video/7479154779684490518</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>571</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>275</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>114</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>14</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Happy international women’s day girlies 💕💌☁️✨🌷👏🏻 let’s continue to support one another!</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>68.1260945709282</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>48.16112084063047</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>19.96497373029772</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>2.45183887915937</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@positivitymeg/photo/7479018208020745494</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>692</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>87</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>56</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>I’m just a girlllll 🌷💕🌸 fresh hair is the best feeling!
 #beingagirl #imjustagirl #girlythings #girlygirl</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>20.66473988439306</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>12.57225433526012</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>8.092485549132949</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>0.2890173410404624</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@positivitymeg/video/7478599235341061399</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>898</v>
-      </c>
-      <c r="C46" t="n">
-        <v>83</v>
-      </c>
-      <c r="D46" t="n">
-        <v>22</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Hope you have a great Friday! Nearly the weekend 🌷✨
-#reminder #gentlereminder #quoteoftheday</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>11.69265033407572</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9.242761692650333</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.44988864142539</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.5567928730512249</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@positivitymeg/photo/7478222705553165590</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>798</v>
-      </c>
-      <c r="C47" t="n">
-        <v>137</v>
-      </c>
-      <c r="D47" t="n">
-        <v>24</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>11</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Great great reminder! ✨👏🏻☁️
-#quoteoftheday #quotesaesthetic #inspirational #mentalhealth</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>20.17543859649123</v>
-      </c>
-      <c r="I47" t="n">
-        <v>17.16791979949875</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.007518796992481</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.378446115288221</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@positivitymeg/video/7478015402950315286</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>743</v>
-      </c>
-      <c r="C48" t="n">
-        <v>83</v>
-      </c>
-      <c r="D48" t="n">
-        <v>20</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Have a great Wednesday girlies! Start today on a positive note ✨
-#mentalhealth #mentalhealthmatters</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>13.86271870794078</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11.17092866756393</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.69179004037685</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.5383580080753702</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@positivitymeg/photo/7477886626178338070</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>520</v>
-      </c>
-      <c r="C49" t="n">
-        <v>162</v>
-      </c>
-      <c r="D49" t="n">
-        <v>45</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Being able to get outside after 5pm for a walk is the best feeling, a small thing but means a lot ☀️🌷☁️✨</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>39.80769230769231</v>
-      </c>
-      <c r="I49" t="n">
-        <v>31.15384615384615</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>8.653846153846153</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.576923076923077</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@positivitymeg/photo/7477675201921322242</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>471</v>
-      </c>
-      <c r="C50" t="n">
-        <v>87</v>
-      </c>
-      <c r="D50" t="n">
-        <v>24</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Keep doing the best you can, good things are coming ✨🫧☁️
-#reminder #gentlereminder #remindertomyself</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>23.56687898089172</v>
-      </c>
-      <c r="I50" t="n">
-        <v>18.47133757961783</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.095541401273886</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.123142250530786</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
         </is>
       </c>
     </row>
